--- a/rcads/data/xls/81_Agents.xlsx
+++ b/rcads/data/xls/81_Agents.xlsx
@@ -7,8 +7,11 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="81_Agents"/>
+    <sheet sheetId="1" r:id="rId1" name="_81_Agents"/>
   </sheets>
+  <definedNames>
+    <definedName name="_81_Agents">'_81_Agents'!$A$1:$C$35</definedName>
+  </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
@@ -23,32 +26,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -56,36 +33,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,80 +43,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyProtection="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="left"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="general"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,138 +343,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="true" min="1" max="1" width="14.0625"/>
-    <col customWidth="true" min="2" max="2" width="31.34765625"/>
-    <col customWidth="true" min="3" max="3" width="37.79296875"/>
-  </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>AgentID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>AgentName</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>Associated DOI</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>Chorpita &amp; Spence</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>Chorpita &amp; Becker</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>Caplan NIH R16 Early Intervention Team</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="0">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>Ebesutani et al. 2012</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>https://doi.org/10.1037/a0027283</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="0">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>Ebesutani et al. 2010</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s10802-009-9363-8</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="0">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>RCADS Team</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Chorpita and Sprung</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="0">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>Park et al. 2016</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="0" t="inlineStr">
         <is>
           <t>10.1007/s10862-015-9517-7</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0">
+        <v>9</v>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>Kumar MMA Team</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>Giannopoulou et al. 2021</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/13591045211056502</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Esbjorn et al. 2012</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1371/journal.pone.0037339</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Reinholdt-Dunne et al. 2012</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>10.5127/jep.019611</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Nasr et al.</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0">
+        <v>14</v>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Ebesutani et al. 2017</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/1073191115627012</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0">
+        <v>15</v>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Grothus et al. 2023</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/mpr.1965</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0">
+        <v>16</v>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Grothus et al. 2023 and Sprung</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0">
+        <v>17</v>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Grothus et al. 2023 and Chorpita and Sprung</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0">
+        <v>18</v>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Young et al. 2020</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s10862-020-09843-2</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0">
+        <v>19</v>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Rodriguez &amp; Polo</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0">
+        <v>20</v>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>Bouvard et al. 2015</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1024/1421-0185/a000158</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0">
+        <v>21</v>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Boustani 2024</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0">
+        <v>22</v>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>Elias et al. 2023</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="0">
+        <v>23</v>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>Adler &amp; Mikučionytė 2023</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="0">
+        <v>24</v>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Stevanovic et al. 2016</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>10.1017/S204579601600038X</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="0">
+        <v>25</v>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Fontana et al. 2019</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>http://dx.doi.org/10.18401/2019.9.2.1</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="0">
+        <v>26</v>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Aalberg et al.</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="0">
+        <v>27</v>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Furman-Zwiefka (Typos in Norwegian versions)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="0">
+        <v>28</v>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Gormez et al. 2017</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/24750573.2017.1297494</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0">
+        <v>29</v>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Fujisato et al. (Youth versions)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0">
+        <v>30</v>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Fujisato et al. (Caregiver versions)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0">
+        <v>31</v>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>Petrič et al., 2024</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2478/sjph-2024-0022</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0">
+        <v>32</v>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Aronen 2017</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0">
+        <v>33</v>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>Shuang Lu</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0">
+        <v>34</v>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>Skoczen 2017</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0">
+        <v>35</v>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>Ovenstad 2025</t>
         </is>
       </c>
     </row>

--- a/rcads/data/xls/81_Agents.xlsx
+++ b/rcads/data/xls/81_Agents.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_81_Agents"/>
   </sheets>
   <definedNames>
-    <definedName name="_81_Agents">'_81_Agents'!$A$1:$C$35</definedName>
+    <definedName name="_81_Agents">'_81_Agents'!$A$1:$C$45</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -778,6 +778,111 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="0">
+        <v>36</v>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>Högström 2015</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0">
+        <v>37</v>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>Hörlin 2025</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0">
+        <v>38</v>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>Lu 2002</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0">
+        <v>39</v>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>Skarphedinsson et al 2023</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jaac.2023.09.333</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="0">
+        <v>40</v>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>Major et al 2021</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="0">
+        <v>41</v>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>Mehak et al 2025</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="0">
+        <v>42</v>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>RCADS Team (Eliza)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="0">
+        <v>43</v>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>Chorpita and Baschnagel</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="0">
+        <v>44</v>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>Chorpita and Chang</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="0">
+        <v>45</v>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>H. Kim and J. Kim</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/81_Agents.xlsx
+++ b/rcads/data/xls/81_Agents.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_81_Agents"/>
   </sheets>
   <definedNames>
-    <definedName name="_81_Agents">'_81_Agents'!$A$1:$C$45</definedName>
+    <definedName name="_81_Agents">'_81_Agents'!$A$1:$C$49</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -883,6 +883,46 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="0">
+        <v>46</v>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>Chorpita and Traub</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="0">
+        <v>47</v>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>Lacroix 2023</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="0">
+        <v>48</v>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>Buckley 2023</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="0">
+        <v>49</v>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>Dayer et al 2023</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/81_Agents.xlsx
+++ b/rcads/data/xls/81_Agents.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_81_Agents"/>
   </sheets>
   <definedNames>
-    <definedName name="_81_Agents">'_81_Agents'!$A$1:$C$49</definedName>
+    <definedName name="_81_Agents">'_81_Agents'!$A$1:$C$50</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -923,6 +923,16 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="0">
+        <v>50</v>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>Baljinnyam et al 2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/81_Agents.xlsx
+++ b/rcads/data/xls/81_Agents.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_81_Agents"/>
   </sheets>
   <definedNames>
-    <definedName name="_81_Agents">'_81_Agents'!$A$1:$C$50</definedName>
+    <definedName name="_81_Agents">'_81_Agents'!$A$1:$C$52</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -933,6 +933,26 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="0">
+        <v>51</v>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>RCADS Team (Adrienne)</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="0">
+        <v>52</v>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>Esposito et al 2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
